--- a/biology/Microbiologie/Methylococcaceae/Methylococcaceae.xlsx
+++ b/biology/Microbiologie/Methylococcaceae/Methylococcaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Methylococcaceae forment une des deux familles de l'ordre Methylococcales. Ce sont des bactéries Gram négatives de la classe des Gammaproteobacteria.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de cette famille Methylococcaceae est la suivante : N.L. masc. n. Methylococcus, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Methylococcaceae, la famille des Methylococcus[2],[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette famille Methylococcaceae est la suivante : N.L. masc. n. Methylococcus, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Methylococcaceae, la famille des Methylococcus,.
 </t>
         </is>
       </c>
@@ -543,9 +560,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (9 novembre 2022)[3], la famille Methylococcaceae comporte 23 taxons dont 18 genres publiés de manière valide :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (9 novembre 2022), la famille Methylococcaceae comporte 23 taxons dont 18 genres publiés de manière valide :
 Methylicorpusculum Saidi-Mehrabad et al. 2020
 Methylobacter Bowman et al. 1993
 Methylocaldum Bodrossy et al. 1998
@@ -563,9 +582,43 @@
 Methylosoma Rahalkar et al. 2007
 Methylosphaera Bowman et al. 1998
 Methyloterricola Frindte et al. 2017
-Methylovulum Iguchi et al. 2011
-Taxons publiés de manière non valide
-"Candidatus Methanofishera" Russell et al. 2020
+Methylovulum Iguchi et al. 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Methylococcaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Methylococcaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons publiés de manière non valide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>"Candidatus Methanofishera" Russell et al. 2020
 "Methylolobus" Rahalkar et al. 2020
 "Candidatus Methylospira" Danilova et al. 2016
 "Methylotetracoccus" Ghashghavi et al. 2019
